--- a/data/outputs/OR_elsevier/43.xlsx
+++ b/data/outputs/OR_elsevier/43.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS126"/>
+  <dimension ref="A1:BU126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,6 +720,16 @@
       <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>eid</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
         </is>
       </c>
     </row>
@@ -849,6 +859,12 @@
           <t>2-s2.0-84937863906</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -976,6 +992,12 @@
           <t>2-s2.0-84925357763</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1106,6 +1128,12 @@
         <is>
           <t>2-s2.0-84930795404</t>
         </is>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1236,6 +1264,12 @@
           <t>2-s2.0-84947997582</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1363,6 +1397,12 @@
           <t>2-s2.0-84925359739</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1490,6 +1530,12 @@
           <t>2-s2.0-84927513578</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1623,6 +1669,12 @@
           <t>2-s2.0-84947925786</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1755,6 +1807,12 @@
         <is>
           <t>2-s2.0-84928739908</t>
         </is>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1883,6 +1941,12 @@
           <t>2-s2.0-84937953755</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2010,6 +2074,12 @@
           <t>2-s2.0-84955070548</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2145,6 +2215,12 @@
           <t>2-s2.0-84930794536</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2279,6 +2355,12 @@
         <is>
           <t>2-s2.0-84930795469</t>
         </is>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -2411,6 +2493,12 @@
           <t>2-s2.0-84955087205</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2546,6 +2634,12 @@
           <t>2-s2.0-84930799937</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2680,6 +2774,12 @@
         <is>
           <t>2-s2.0-84927523763</t>
         </is>
+      </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -2808,6 +2908,12 @@
           <t>2-s2.0-84955112822</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2940,6 +3046,12 @@
         <is>
           <t>2-s2.0-84927523043</t>
         </is>
+      </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -3068,6 +3180,12 @@
           <t>2-s2.0-84930809963</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3205,6 +3323,12 @@
           <t>2-s2.0-84925347661</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3340,6 +3464,12 @@
           <t>2-s2.0-84930803568</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3475,6 +3605,12 @@
           <t>2-s2.0-84925353949</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3609,6 +3745,12 @@
         <is>
           <t>2-s2.0-84955076029</t>
         </is>
+      </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -3737,6 +3879,12 @@
           <t>2-s2.0-84937957955</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3866,6 +4014,12 @@
           <t>2-s2.0-84930793816</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4002,6 +4156,12 @@
         <is>
           <t>2-s2.0-84927509372</t>
         </is>
+      </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
@@ -4130,6 +4290,12 @@
           <t>2-s2.0-84925350815</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4265,6 +4431,12 @@
           <t>2-s2.0-84955147550</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4401,6 +4573,12 @@
         <is>
           <t>2-s2.0-84955113425</t>
         </is>
+      </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -4549,6 +4727,12 @@
           <t>2-s2.0-84945494691</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4681,6 +4865,12 @@
         <is>
           <t>2-s2.0-84947912025</t>
         </is>
+      </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -4811,6 +5001,12 @@
           <t>2-s2.0-84947930023</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4945,6 +5141,12 @@
         <is>
           <t>2-s2.0-84937917657</t>
         </is>
+      </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -5073,6 +5275,12 @@
           <t>2-s2.0-84955103223</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5209,6 +5417,12 @@
         <is>
           <t>2-s2.0-84955131134</t>
         </is>
+      </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -5337,6 +5551,12 @@
           <t>2-s2.0-84947919863</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5471,6 +5691,12 @@
         <is>
           <t>2-s2.0-84931577602</t>
         </is>
+      </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -5599,6 +5825,12 @@
           <t>2-s2.0-84928468369</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5734,6 +5966,12 @@
           <t>2-s2.0-84925483421</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5869,6 +6107,12 @@
           <t>2-s2.0-84922669884</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6005,6 +6249,12 @@
         <is>
           <t>2-s2.0-84925354050</t>
         </is>
+      </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="42">
@@ -6135,6 +6385,12 @@
           <t>2-s2.0-84955133706</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6275,6 +6531,12 @@
         <is>
           <t>2-s2.0-84931567718</t>
         </is>
+      </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -6405,6 +6667,12 @@
           <t>2-s2.0-84937859938</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6532,6 +6800,12 @@
           <t>2-s2.0-84937920364</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6668,6 +6942,12 @@
         <is>
           <t>2-s2.0-84927550300</t>
         </is>
+      </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -6798,6 +7078,12 @@
           <t>2-s2.0-84947926280</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6929,6 +7215,12 @@
           <t>2-s2.0-84937837546</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7065,6 +7357,12 @@
         <is>
           <t>2-s2.0-84937829272</t>
         </is>
+      </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -7193,6 +7491,12 @@
           <t>2-s2.0-84930800581</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7320,6 +7624,12 @@
           <t>2-s2.0-84927563032</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7447,6 +7757,12 @@
           <t>2-s2.0-84927551679</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7579,6 +7895,12 @@
         <is>
           <t>2-s2.0-84955131227</t>
         </is>
+      </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -7709,6 +8031,12 @@
           <t>2-s2.0-84937862198</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7840,6 +8168,12 @@
           <t>2-s2.0-84931569979</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7967,6 +8301,12 @@
           <t>2-s2.0-84937961712</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8094,6 +8434,12 @@
           <t>2-s2.0-84930817574</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8228,6 +8574,12 @@
         <is>
           <t>2-s2.0-84930817338</t>
         </is>
+      </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -8356,6 +8708,12 @@
           <t>2-s2.0-84927562013</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8483,6 +8841,12 @@
           <t>2-s2.0-84955099910</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8637,6 +9001,12 @@
         <is>
           <t>2-s2.0-84945453676</t>
         </is>
+      </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -8767,6 +9137,12 @@
           <t>2-s2.0-84947939255</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8894,6 +9270,12 @@
           <t>2-s2.0-84947925211</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9024,6 +9406,12 @@
         <is>
           <t>2-s2.0-84930810910</t>
         </is>
+      </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -9156,6 +9544,12 @@
           <t>2-s2.0-84925511232</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9287,6 +9681,12 @@
           <t>2-s2.0-84925538872</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9425,6 +9825,12 @@
         <is>
           <t>2-s2.0-84925502796</t>
         </is>
+      </c>
+      <c r="BT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -9557,6 +9963,12 @@
           <t>2-s2.0-84927520600</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9691,6 +10103,12 @@
         <is>
           <t>2-s2.0-84927561828</t>
         </is>
+      </c>
+      <c r="BT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -9819,6 +10237,12 @@
           <t>2-s2.0-84925346164</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9946,6 +10370,12 @@
           <t>2-s2.0-84925356672</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10093,6 +10523,12 @@
           <t>2-s2.0-84945449832</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10243,6 +10679,12 @@
         <is>
           <t>2-s2.0-84945474566</t>
         </is>
+      </c>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -10373,6 +10815,12 @@
           <t>2-s2.0-84947923531</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10504,6 +10952,12 @@
           <t>2-s2.0-84931568311</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10631,6 +11085,12 @@
           <t>2-s2.0-84930786963</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10758,6 +11218,12 @@
           <t>2-s2.0-84925346707</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10888,6 +11354,12 @@
         <is>
           <t>2-s2.0-84925354130</t>
         </is>
+      </c>
+      <c r="BT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -11021,6 +11493,12 @@
         <is>
           <t>2-s2.0-84955071212</t>
         </is>
+      </c>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -11151,6 +11629,12 @@
           <t>2-s2.0-84947938539</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -11280,6 +11764,12 @@
           <t>2-s2.0-84947919622</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -11409,6 +11899,12 @@
           <t>2-s2.0-84937954129</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -11544,6 +12040,12 @@
           <t>2-s2.0-84925501264</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -11678,6 +12180,12 @@
         <is>
           <t>2-s2.0-84927519835</t>
         </is>
+      </c>
+      <c r="BT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="85">
@@ -11806,6 +12314,12 @@
           <t>2-s2.0-84925365203</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -11935,6 +12449,12 @@
           <t>2-s2.0-84925347926</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -12068,6 +12588,12 @@
           <t>2-s2.0-84982276448</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -12222,6 +12748,12 @@
         <is>
           <t>2-s2.0-84945462135</t>
         </is>
+      </c>
+      <c r="BT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -12350,6 +12882,12 @@
           <t>2-s2.0-84937897936</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -12477,6 +13015,12 @@
           <t>2-s2.0-84937910740</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -12604,6 +13148,12 @@
           <t>2-s2.0-84930801877</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -12739,6 +13289,12 @@
           <t>2-s2.0-84927516388</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -12873,6 +13429,12 @@
         <is>
           <t>2-s2.0-84925345721</t>
         </is>
+      </c>
+      <c r="BT93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="94">
@@ -13021,6 +13583,12 @@
           <t>2-s2.0-84945473973</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -13148,6 +13716,12 @@
           <t>2-s2.0-84947926171</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -13287,6 +13861,12 @@
           <t>2-s2.0-84931576708</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -13417,6 +13997,12 @@
         <is>
           <t>2-s2.0-84937907584</t>
         </is>
+      </c>
+      <c r="BT97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -13547,6 +14133,12 @@
           <t>2-s2.0-84937876000</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -13674,6 +14266,12 @@
           <t>2-s2.0-84937903035</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -13812,6 +14410,12 @@
         <is>
           <t>2-s2.0-84925497178</t>
         </is>
+      </c>
+      <c r="BT100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -13942,6 +14546,12 @@
           <t>2-s2.0-84927553249</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -14069,6 +14679,12 @@
           <t>2-s2.0-84927521268</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -14200,6 +14816,12 @@
           <t>2-s2.0-84925364157</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -14335,6 +14957,12 @@
           <t>2-s2.0-84925349280</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -14492,6 +15120,12 @@
           <t>2-s2.0-84945483871</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -14626,6 +15260,12 @@
         <is>
           <t>2-s2.0-84947913471</t>
         </is>
+      </c>
+      <c r="BT106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -14754,6 +15394,12 @@
           <t>2-s2.0-84947926451</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -14885,6 +15531,12 @@
           <t>2-s2.0-84931563520</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -15016,6 +15668,12 @@
           <t>2-s2.0-84931569318</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -15143,6 +15801,12 @@
           <t>2-s2.0-84930800953</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -15277,6 +15941,12 @@
         <is>
           <t>2-s2.0-84955072773</t>
         </is>
+      </c>
+      <c r="BT111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -15410,6 +16080,12 @@
         <is>
           <t>2-s2.0-84955064496</t>
         </is>
+      </c>
+      <c r="BT112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -15538,6 +16214,12 @@
           <t>2-s2.0-84955108075</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -15676,6 +16358,12 @@
         <is>
           <t>2-s2.0-84931565809</t>
         </is>
+      </c>
+      <c r="BT114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -15806,6 +16494,12 @@
           <t>2-s2.0-84930811891</t>
         </is>
       </c>
+      <c r="BT115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -15942,6 +16636,12 @@
         <is>
           <t>2-s2.0-84925352279</t>
         </is>
+      </c>
+      <c r="BT116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -16072,6 +16772,12 @@
           <t>2-s2.0-84955055961</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -16202,6 +16908,12 @@
         <is>
           <t>2-s2.0-84955059683</t>
         </is>
+      </c>
+      <c r="BT118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -16326,6 +17038,12 @@
           <t>2-s2.0-84955093862</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -16453,6 +17171,12 @@
           <t>2-s2.0-84945461565</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -16608,6 +17332,12 @@
           <t>2-s2.0-84945461899</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -16739,6 +17469,12 @@
           <t>2-s2.0-84930787170</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -16875,6 +17611,12 @@
         <is>
           <t>2-s2.0-84927515396</t>
         </is>
+      </c>
+      <c r="BT123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -17003,6 +17745,12 @@
           <t>2-s2.0-84927509476</t>
         </is>
       </c>
+      <c r="BT124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -17137,6 +17885,12 @@
         <is>
           <t>2-s2.0-84927517984</t>
         </is>
+      </c>
+      <c r="BT125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -17261,6 +18015,12 @@
           <t>2-s2.0-84927517811</t>
         </is>
       </c>
+      <c r="BT126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
